--- a/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
+++ b/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
@@ -39,13 +39,14 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">    John Doe   </x:t>
+    <x:t xml:space="preserve">    John
+Doe   </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">    john@company.com    </x:t>
   </x:si>
   <x:si>
-    <x:t>True</x:t>
+    <x:t>False</x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
@@ -419,7 +420,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.996339" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="23.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
@@ -461,10 +462,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="2">
-        <x:v>43845</x:v>
+        <x:v>-1</x:v>
       </x:c>
       <x:c r="E2" s="1">
-        <x:v>75000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
         <x:v>9</x:v>

--- a/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
+++ b/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
@@ -109,11 +109,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
+++ b/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
@@ -109,11 +109,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
+++ b/src/Tests/Tests.DisableWhitespaceTrim.Net.verified.xlsx
@@ -39,8 +39,7 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">    John
-Doe   </x:t>
+    <x:t xml:space="preserve">    John Doe   </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">    john@company.com    </x:t>
@@ -420,7 +419,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.567768" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="23.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
